--- a/test/fillcells.xlsx
+++ b/test/fillcells.xlsx
@@ -326,23 +326,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>a1</v>
+        <v>TITLE-A</v>
       </c>
       <c r="B1" t="str">
-        <v>b1</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
+        <v>B</v>
+      </c>
+      <c r="C1" t="str">
+        <v>TITLE-C</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>a1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>b1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
         <v>a2</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B3" t="str">
         <v>b2</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>2</v>
       </c>
     </row>
@@ -359,23 +370,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>aa11</v>
+        <v>TITLE-A</v>
       </c>
       <c r="B1" t="str">
-        <v>bb11</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
+        <v>B</v>
+      </c>
+      <c r="C1" t="str">
+        <v>TITLE-C</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>aa11</v>
+      </c>
+      <c r="B2" t="str">
+        <v>bb11</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
         <v>aa22</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B3" t="str">
         <v>bb22</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>2</v>
       </c>
     </row>

--- a/test/fillcells.xlsx
+++ b/test/fillcells.xlsx
@@ -7,8 +7,8 @@
     <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="2" r:id="rId4"/>
-    <sheet name="data2" sheetId="3" r:id="rId5"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="data2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -18,10 +18,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -317,6 +317,52 @@
 </a:theme>
 </file>
 
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="true" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>TITLE-A</v>
+      </c>
+      <c r="B1" t="str">
+        <v>B</v>
+      </c>
+      <c r="C1" t="str">
+        <v>TITLE-C</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>a1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>b1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>a2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>b2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <dimension ref="A1"/>
@@ -337,50 +383,6 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>a1</v>
-      </c>
-      <c r="B2" t="str">
-        <v>b1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>a2</v>
-      </c>
-      <c r="B3" t="str">
-        <v>b2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>TITLE-A</v>
-      </c>
-      <c r="B1" t="str">
-        <v>B</v>
-      </c>
-      <c r="C1" t="str">
-        <v>TITLE-C</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
         <v>aa11</v>
       </c>
       <c r="B2" t="str">

--- a/test/fillcells.xlsx
+++ b/test/fillcells.xlsx
@@ -8,7 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="data2" sheetId="2" r:id="rId4"/>
+    <sheet name="data1" sheetId="2" r:id="rId4"/>
+    <sheet name="data2" sheetId="3" r:id="rId5"/>
+    <sheet name="atad" sheetId="4" r:id="rId6"/>
+    <sheet name="atad1" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -383,10 +386,87 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>aa11</v>
+        <v>a3</v>
       </c>
       <c r="B2" t="str">
-        <v>bb11</v>
+        <v>b3</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>a4</v>
+      </c>
+      <c r="B3" t="str">
+        <v>b4</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>TITLE-A</v>
+      </c>
+      <c r="B1" t="str">
+        <v>B</v>
+      </c>
+      <c r="C1" t="str">
+        <v>TITLE-C</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>a5</v>
+      </c>
+      <c r="B2" t="str">
+        <v>b5</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>TITLE-A</v>
+      </c>
+      <c r="B1" t="str">
+        <v>B</v>
+      </c>
+      <c r="C1" t="str">
+        <v>TITLE-C</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>a1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>b1</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -394,10 +474,65 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>aa22</v>
+        <v>a2</v>
       </c>
       <c r="B3" t="str">
-        <v>bb22</v>
+        <v>b2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>a3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>b3</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>TITLE-A</v>
+      </c>
+      <c r="B1" t="str">
+        <v>B</v>
+      </c>
+      <c r="C1" t="str">
+        <v>TITLE-C</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>a4</v>
+      </c>
+      <c r="B2" t="str">
+        <v>b4</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>a5</v>
+      </c>
+      <c r="B3" t="str">
+        <v>b5</v>
       </c>
       <c r="C3">
         <v>2</v>

--- a/test/fillcells.xlsx
+++ b/test/fillcells.xlsx
@@ -338,6 +338,12 @@
       <c r="C1" t="str">
         <v>TITLE-C</v>
       </c>
+      <c r="D1" t="str">
+        <v>time</v>
+      </c>
+      <c r="E1" t="str">
+        <v>time</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -349,6 +355,12 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2" t="str">
+        <v>2019-12-09 18:40:14.4195396 +0800 CST m=+0.004998401</v>
+      </c>
+      <c r="E2" t="str">
+        <v>2019-12-09 18:40:14</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -359,6 +371,12 @@
       </c>
       <c r="C3">
         <v>2</v>
+      </c>
+      <c r="D3" t="str">
+        <v>0001-01-01 00:00:00 +0000 UTC</v>
+      </c>
+      <c r="E3" t="str">
+        <v>0001-01-01 00:00:00</v>
       </c>
     </row>
   </sheetData>
@@ -383,6 +401,12 @@
       <c r="C1" t="str">
         <v>TITLE-C</v>
       </c>
+      <c r="D1" t="str">
+        <v>time</v>
+      </c>
+      <c r="E1" t="str">
+        <v>time</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -394,6 +418,12 @@
       <c r="C2">
         <v>2</v>
       </c>
+      <c r="D2" t="str">
+        <v>0001-01-01 00:00:00 +0000 UTC</v>
+      </c>
+      <c r="E2" t="str">
+        <v>0001-01-01 00:00:00</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -404,6 +434,12 @@
       </c>
       <c r="C3">
         <v>2</v>
+      </c>
+      <c r="D3" t="str">
+        <v>0001-01-01 00:00:00 +0000 UTC</v>
+      </c>
+      <c r="E3" t="str">
+        <v>0001-01-01 00:00:00</v>
       </c>
     </row>
   </sheetData>
@@ -427,6 +463,12 @@
       <c r="C1" t="str">
         <v>TITLE-C</v>
       </c>
+      <c r="D1" t="str">
+        <v>time</v>
+      </c>
+      <c r="E1" t="str">
+        <v>time</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -437,6 +479,12 @@
       </c>
       <c r="C2">
         <v>2</v>
+      </c>
+      <c r="D2" t="str">
+        <v>2019-12-09 18:40:14.4195396 +0800 CST m=+0.004998401</v>
+      </c>
+      <c r="E2" t="str">
+        <v>0001-01-01 00:00:00</v>
       </c>
     </row>
   </sheetData>
@@ -460,6 +508,12 @@
       <c r="C1" t="str">
         <v>TITLE-C</v>
       </c>
+      <c r="D1" t="str">
+        <v>time</v>
+      </c>
+      <c r="E1" t="str">
+        <v>time</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -471,6 +525,12 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2" t="str">
+        <v>0001-01-01 00:00:00 +0000 UTC</v>
+      </c>
+      <c r="E2" t="str">
+        <v>0001-01-01 00:00:00</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -482,6 +542,12 @@
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3" t="str">
+        <v>0001-01-01 00:00:00 +0000 UTC</v>
+      </c>
+      <c r="E3" t="str">
+        <v>0001-01-01 00:00:00</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -492,6 +558,12 @@
       </c>
       <c r="C4">
         <v>2</v>
+      </c>
+      <c r="D4" t="str">
+        <v>0001-01-01 00:00:00 +0000 UTC</v>
+      </c>
+      <c r="E4" t="str">
+        <v>0001-01-01 00:00:00</v>
       </c>
     </row>
   </sheetData>
@@ -515,6 +587,12 @@
       <c r="C1" t="str">
         <v>TITLE-C</v>
       </c>
+      <c r="D1" t="str">
+        <v>time</v>
+      </c>
+      <c r="E1" t="str">
+        <v>time</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -526,6 +604,12 @@
       <c r="C2">
         <v>2</v>
       </c>
+      <c r="D2" t="str">
+        <v>0001-01-01 00:00:00 +0000 UTC</v>
+      </c>
+      <c r="E2" t="str">
+        <v>0001-01-01 00:00:00</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -537,6 +621,12 @@
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3" t="str">
+        <v>0001-01-01 00:00:00 +0000 UTC</v>
+      </c>
+      <c r="E3" t="str">
+        <v>0001-01-01 00:00:00</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/test/fillcells.xlsx
+++ b/test/fillcells.xlsx
@@ -356,10 +356,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="str">
-        <v>2019-12-09 18:40:14.4195396 +0800 CST m=+0.004998401</v>
+        <v>2019-12-09 18:44:18.0873426 +0800 CST m=+0.009970601</v>
       </c>
       <c r="E2" t="str">
-        <v>2019-12-09 18:40:14</v>
+        <v>2019-12-09 18:44:18</v>
       </c>
     </row>
     <row r="3">
@@ -481,7 +481,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="str">
-        <v>2019-12-09 18:40:14.4195396 +0800 CST m=+0.004998401</v>
+        <v>2019-12-09 18:44:18.0873426 +0800 CST m=+0.009970601</v>
       </c>
       <c r="E2" t="str">
         <v>0001-01-01 00:00:00</v>

--- a/test/fillcells.xlsx
+++ b/test/fillcells.xlsx
@@ -356,10 +356,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="str">
-        <v>2019-12-09 18:44:18.0873426 +0800 CST m=+0.009970601</v>
+        <v>2019-12-09 18:48:40</v>
       </c>
       <c r="E2" t="str">
-        <v>2019-12-09 18:44:18</v>
+        <v>2019/12/09 18:48:40</v>
       </c>
     </row>
     <row r="3">
@@ -373,10 +373,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="str">
-        <v>0001-01-01 00:00:00 +0000 UTC</v>
+        <v>0001-01-01 00:00:00</v>
       </c>
       <c r="E3" t="str">
-        <v>0001-01-01 00:00:00</v>
+        <v>0001/01/01 00:00:00</v>
       </c>
     </row>
   </sheetData>
@@ -419,10 +419,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="str">
-        <v>0001-01-01 00:00:00 +0000 UTC</v>
+        <v>0001-01-01 00:00:00</v>
       </c>
       <c r="E2" t="str">
-        <v>0001-01-01 00:00:00</v>
+        <v>0001/01/01 00:00:00</v>
       </c>
     </row>
     <row r="3">
@@ -436,10 +436,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="str">
-        <v>0001-01-01 00:00:00 +0000 UTC</v>
+        <v>0001-01-01 00:00:00</v>
       </c>
       <c r="E3" t="str">
-        <v>0001-01-01 00:00:00</v>
+        <v>0001/01/01 00:00:00</v>
       </c>
     </row>
   </sheetData>
@@ -481,10 +481,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="str">
-        <v>2019-12-09 18:44:18.0873426 +0800 CST m=+0.009970601</v>
+        <v>2019-12-09 18:48:40</v>
       </c>
       <c r="E2" t="str">
-        <v>0001-01-01 00:00:00</v>
+        <v>0001/01/01 00:00:00</v>
       </c>
     </row>
   </sheetData>
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="str">
-        <v>0001-01-01 00:00:00 +0000 UTC</v>
+        <v>0001-01-01 00:00:00</v>
       </c>
       <c r="E2" t="str">
-        <v>0001-01-01 00:00:00</v>
+        <v>0001/01/01 00:00:00</v>
       </c>
     </row>
     <row r="3">
@@ -543,10 +543,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="str">
-        <v>0001-01-01 00:00:00 +0000 UTC</v>
+        <v>0001-01-01 00:00:00</v>
       </c>
       <c r="E3" t="str">
-        <v>0001-01-01 00:00:00</v>
+        <v>0001/01/01 00:00:00</v>
       </c>
     </row>
     <row r="4">
@@ -560,10 +560,10 @@
         <v>2</v>
       </c>
       <c r="D4" t="str">
-        <v>0001-01-01 00:00:00 +0000 UTC</v>
+        <v>0001-01-01 00:00:00</v>
       </c>
       <c r="E4" t="str">
-        <v>0001-01-01 00:00:00</v>
+        <v>0001/01/01 00:00:00</v>
       </c>
     </row>
   </sheetData>
@@ -605,10 +605,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="str">
-        <v>0001-01-01 00:00:00 +0000 UTC</v>
+        <v>0001-01-01 00:00:00</v>
       </c>
       <c r="E2" t="str">
-        <v>0001-01-01 00:00:00</v>
+        <v>0001/01/01 00:00:00</v>
       </c>
     </row>
     <row r="3">
@@ -622,10 +622,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="str">
-        <v>0001-01-01 00:00:00 +0000 UTC</v>
+        <v>0001-01-01 00:00:00</v>
       </c>
       <c r="E3" t="str">
-        <v>0001-01-01 00:00:00</v>
+        <v>0001/01/01 00:00:00</v>
       </c>
     </row>
   </sheetData>
